--- a/Aegiverse_GUI/IRIS1/版本管控.xlsx
+++ b/Aegiverse_GUI/IRIS1/版本管控.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\Aegiverse_GUI\IRIS1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\Documents\GitHub\adamShiau_Python\Aegiverse_GUI\IRIS1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61BA68D-35C3-4D1F-B89C-56E4024A48AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D000C5CD-29CF-4600-98EB-6238255A065E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,8 @@
   </si>
   <si>
     <t>1. copy 自 IRIS_IMU_Ver1.3
-2. 從AHRS GUI 把姿態顯示儀搬過來</t>
+2. 從AHRS GUI 把姿態顯示儀搬過來
+3. BR 230400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,13 +92,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,45 +383,45 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
